--- a/target/classes/examples/农药施用.xlsx
+++ b/target/classes/examples/农药施用.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_FBFE64F0484D6D63383791BB20B8E19F85212149" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C266A68A-0C50-4B6B-891B-58499246DDEB}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_FBFE64F0484D6D63383791BB20B8E19F85212149" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{59C7BFF0-F70A-47A6-A1BF-C1BB8A555E6C}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <r>
       <rPr>
@@ -39,9 +39,6 @@
       </rPr>
       <t>区县编码</t>
     </r>
-  </si>
-  <si>
-    <t>1703990000</t>
   </si>
   <si>
     <t>SCC编码</t>
@@ -540,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
@@ -557,7 +554,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -566,115 +563,74 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
+      <c r="A2" s="3">
+        <v>1703990000</v>
       </c>
       <c r="B2" s="3">
         <v>2015</v>
       </c>
       <c r="C2" s="3">
-        <v>650104</v>
+        <v>650105</v>
       </c>
       <c r="D2" s="3">
-        <v>342</v>
+        <v>42432</v>
       </c>
       <c r="E2" s="5">
-        <v>1.0905052400000004</v>
+        <v>0.2001</v>
       </c>
       <c r="F2" s="5">
-        <v>1.0905052400000004</v>
+        <v>0.2001</v>
       </c>
       <c r="G2" s="5">
-        <v>1.0905052400000004</v>
+        <v>0.2001</v>
       </c>
       <c r="H2" s="5">
-        <v>1.0905052400000004</v>
+        <v>0.2001</v>
       </c>
       <c r="I2" s="5">
-        <v>1.0905052400000004</v>
+        <v>0.2001</v>
       </c>
       <c r="J2" s="5">
-        <v>1.0905052400000004</v>
+        <v>0.2001</v>
       </c>
       <c r="K2" s="5">
-        <v>1.0905052400000004</v>
+        <v>0.2001</v>
       </c>
       <c r="L2" s="5">
-        <v>1.0905052400000004</v>
+        <v>0.2001</v>
       </c>
       <c r="M2" s="5">
-        <v>1.0905052400000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2015</v>
-      </c>
-      <c r="C3" s="3">
-        <v>650105</v>
-      </c>
-      <c r="D3" s="3">
-        <v>42432</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.2001</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.2001</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.2001</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.2001</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0.2001</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0.2001</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0.2001</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0.2001</v>
-      </c>
-      <c r="M3" s="5">
         <v>0.2001</v>
       </c>
     </row>

--- a/target/classes/examples/农药施用.xlsx
+++ b/target/classes/examples/农药施用.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_FBFE64F0484D6D63383791BB20B8E19F85212149" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{59C7BFF0-F70A-47A6-A1BF-C1BB8A555E6C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B247EF54-BA8F-49EC-9CA2-D1E2512E0CC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="1140" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="农药施用" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -537,22 +537,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.47265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.62890625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -593,15 +596,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>1703990000</v>
+        <v>1703010001</v>
       </c>
       <c r="B2" s="3">
         <v>2015</v>
       </c>
       <c r="C2" s="3">
-        <v>650105</v>
+        <v>210101</v>
       </c>
       <c r="D2" s="3">
         <v>42432</v>
@@ -631,12 +634,94 @@
         <v>0.2001</v>
       </c>
       <c r="M2" s="5">
+        <v>0.2001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1703010002</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C3" s="3">
+        <v>210102</v>
+      </c>
+      <c r="D3" s="3">
+        <v>42432</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.2001</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.2001</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.2001</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.2001</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.2001</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.2001</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.2001</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.2001</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.2001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1703010003</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C4" s="3">
+        <v>210103</v>
+      </c>
+      <c r="D4" s="3">
+        <v>42432</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.2001</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.2001</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.2001</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.2001</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.2001</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.2001</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.2001</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.2001</v>
+      </c>
+      <c r="M4" s="5">
         <v>0.2001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>